--- a/Data Test/Dashboard/data_listmenu.xlsx
+++ b/Data Test/Dashboard/data_listmenu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\git\miniproject-web1\Data Test\Dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C8EBF13-2ACD-452E-A16B-4D439975CB90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{747D77A1-91DC-450D-8408-6247D334771E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{73F6B24D-ADAB-4671-890A-23648465894E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{B4C962CA-5B60-4209-BC71-32BFF678F6FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+  <si>
+    <t>Menu</t>
+  </si>
   <si>
     <t>Admin</t>
   </si>
@@ -61,6 +64,9 @@
   </si>
   <si>
     <t>Buzz</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -96,8 +102,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -411,76 +420,121 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E24413B-52F9-4B2C-A659-095E427D0203}">
-  <dimension ref="A1:A12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74C29237-5381-44E4-B5C6-12BC2B98B659}">
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
         <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
